--- a/First Test/Fichier 1.xlsx
+++ b/First Test/Fichier 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lopes/PycharmProjects/PythonAutomatization/First Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFD98B6-B39F-F24A-BF59-359C14A7A4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EAE2EF-D26A-9346-9834-E5AA2EEBA3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2120" windowWidth="28040" windowHeight="17440" xr2:uid="{2DC94558-767B-8C4D-8F2A-821B19CA9E7E}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
